--- a/Measurements/Effeciency/Effeciency CLosed Loop Lin Reg Included 17-01-2018.xlsx
+++ b/Measurements/Effeciency/Effeciency CLosed Loop Lin Reg Included 17-01-2018.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="590" documentId="74A17B0689622990A51C052D9679C61268987CF0" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{945DE927-BABE-4027-98C3-6C7317BB7ACA}"/>
+  <xr:revisionPtr revIDLastSave="603" documentId="74A17B0689622990A51C052D9679C61268987CF0" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{D4D7FD68-AE6B-4285-9C3C-76E550D9221F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="export 30-15" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="8">
   <si>
     <t>Input</t>
   </si>
@@ -41,6 +42,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Effeciency [%]</t>
   </si>
 </sst>
 </file>
@@ -5216,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5227,7 +5231,7 @@
     <col min="4" max="4" width="9.1328125" customWidth="1"/>
     <col min="5" max="6" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.06640625" style="1"/>
+    <col min="9" max="9" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -5261,7 +5265,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -7340,4 +7344,182 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC8004C-F6CB-45A9-9A94-0E946132AE2F}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="str">
+        <f>'Ark1'!G2</f>
+        <v>Power [W]</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>'Ark1'!I2</f>
+        <v>Effeciency [%]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <f>'Ark1'!G3</f>
+        <v>1.5</v>
+      </c>
+      <c r="B2" s="1">
+        <f>'Ark1'!I3</f>
+        <v>64.516129032258064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <f>'Ark1'!G4</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <f>'Ark1'!I4</f>
+        <v>74.626865671641781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <f>'Ark1'!G5</f>
+        <v>4.5</v>
+      </c>
+      <c r="B4" s="1">
+        <f>'Ark1'!I5</f>
+        <v>79.365079365079367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f>'Ark1'!G6</f>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <f>'Ark1'!I6</f>
+        <v>82.304526748971199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f>'Ark1'!G7</f>
+        <v>7.5</v>
+      </c>
+      <c r="B6" s="1">
+        <f>'Ark1'!I7</f>
+        <v>83.892617449664428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f>'Ark1'!G8</f>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <f>'Ark1'!I8</f>
+        <v>84.985835694050991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f>'Ark1'!G9</f>
+        <v>10.5</v>
+      </c>
+      <c r="B8" s="1">
+        <f>'Ark1'!I9</f>
+        <v>85.574572127139376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f>'Ark1'!G10</f>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <f>'Ark1'!I10</f>
+        <v>86.021505376344081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f>'Ark1'!G11</f>
+        <v>13.5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>'Ark1'!I11</f>
+        <v>86.372360844529751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f>'Ark1'!G12</f>
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <f>'Ark1'!I12</f>
+        <v>86.355785837651126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f>'Ark1'!G13</f>
+        <v>16.5</v>
+      </c>
+      <c r="B12" s="1">
+        <f>'Ark1'!I13</f>
+        <v>86.477987421383645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f>'Ark1'!G14</f>
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <f>'Ark1'!I14</f>
+        <v>86.455331412103746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f>'Ark1'!G15</f>
+        <v>19.5</v>
+      </c>
+      <c r="B14" s="1">
+        <f>'Ark1'!I15</f>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f>'Ark1'!G16</f>
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <f>'Ark1'!I16</f>
+        <v>86.526576019777494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f>'Ark1'!G17</f>
+        <v>22.5</v>
+      </c>
+      <c r="B16" s="1">
+        <f>'Ark1'!I17</f>
+        <v>86.405529953917053</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>